--- a/Excel_folder/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board.xlsx
+++ b/Excel_folder/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board.xlsx
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>14408.82</v>
+        <v>14408820000</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>10950.42</v>
+        <v>10950420000</v>
       </c>
       <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="n"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>63.38</v>
+        <v>63380000</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>50.78</v>
+        <v>50780000</v>
       </c>
       <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="n"/>
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>3228.41</v>
+        <v>3228410000</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>2362.74</v>
+        <v>2362740000</v>
       </c>
       <c r="D75" s="2" t="n"/>
       <c r="E75" s="2" t="n"/>
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>149.84</v>
+        <v>1564860000</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>106.27</v>
+        <v>1335660000</v>
       </c>
       <c r="D76" s="2" t="n"/>
       <c r="E76" s="2" t="n"/>
@@ -1345,8 +1345,12 @@
           <t>Less: Advances from customers/Unearned revenue</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n"/>
-      <c r="C77" s="2" t="n"/>
+      <c r="B77" s="2" t="n">
+        <v>714950000</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>523140000</v>
+      </c>
       <c r="D77" s="2" t="n"/>
       <c r="E77" s="2" t="n"/>
     </row>
@@ -1379,10 +1383,10 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>939.09</v>
+        <v>939090000</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>791.8200000000001</v>
+        <v>791820000</v>
       </c>
       <c r="D80" s="2" t="n"/>
       <c r="E80" s="2" t="n"/>
@@ -1405,10 +1409,10 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>149.84</v>
+        <v>1564860000</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>106.27</v>
+        <v>1335660000</v>
       </c>
       <c r="D82" s="2" t="n"/>
       <c r="E82" s="2" t="n"/>
@@ -1420,10 +1424,10 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>149.84</v>
+        <v>1564860000</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>106.27</v>
+        <v>1335660000</v>
       </c>
       <c r="D83" s="2" t="n"/>
       <c r="E83" s="2" t="n"/>
